--- a/doc/ソフト構成解析.xlsx
+++ b/doc/ソフト構成解析.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\user1\work\workspace\git\bookproject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB5DF76-01AD-4EFC-B2A2-17BF1378ABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4A2756-89D2-4473-8722-02FB3FF03214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ソフト構成" sheetId="1" r:id="rId1"/>
+    <sheet name="補足" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -85,23 +86,469 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95F6961-B457-66A4-10C5-4169BD1046E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3221131" y="1631016"/>
+          <a:ext cx="3078256" cy="2579034"/>
+          <a:chOff x="1828800" y="1647825"/>
+          <a:chExt cx="3114675" cy="2609850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F696C1E0-AA9E-4307-A285-346864BCFEC9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1828800" y="1647825"/>
+            <a:ext cx="3114675" cy="2609850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>Config(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>プロジェクト</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C35307A-CC97-4F89-BE28-2B892B9ADDC5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1935387" y="2823061"/>
+            <a:ext cx="2638425" cy="590549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>settings.py</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="テキスト ボックス 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820CAA8D-042C-41BF-B5D5-0AD623531675}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1925864" y="2057820"/>
+            <a:ext cx="2638425" cy="590549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>urls.py</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F51C96-BC58-4BF9-B4B9-ED54634FC13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933451" y="1619249"/>
+          <a:ext cx="914400" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ブラウザ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>42114</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91604</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D178269-1B38-4BF2-A0B5-5747791C2CE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9925702" y="2907926"/>
+          <a:ext cx="1134504" cy="7560"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>210046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22531</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34737</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02229164-238C-4937-AFA7-4B6BE28FB0DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1828241" y="2327958"/>
+          <a:ext cx="1488819" cy="765985"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>41547</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>182344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>686</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>210046</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4861150-0909-4EE9-BB7B-73A465D26ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5924635" y="1358962"/>
+          <a:ext cx="1371080" cy="968996"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>235322</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D273B0-65C1-6295-0DEC-E1D4B6F18286}"/>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5553493-1963-7A1D-E4C2-5CAD737FB0B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -109,8 +556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11639550" y="3057525"/>
-          <a:ext cx="3114675" cy="2609850"/>
+          <a:off x="7116855" y="546847"/>
+          <a:ext cx="7237879" cy="5056094"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -142,7 +589,15 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>Test</a:t>
+            <a:t>Book(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>アプリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
         </a:p>
@@ -152,23 +607,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>23098</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>18374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>42114</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164833</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1546119F-7406-7CC2-849C-DEFA74D70B58}"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC99BB8-1F34-92D9-199F-4616FA3762CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -176,77 +631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11791950" y="3581400"/>
-          <a:ext cx="2238375" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="12700" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>test</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F696C1E0-AA9E-4307-A285-346864BCFEC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="1647825"/>
-          <a:ext cx="3114675" cy="2609850"/>
+          <a:off x="7318127" y="2606933"/>
+          <a:ext cx="2607575" cy="617106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -278,7 +664,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>Config</a:t>
+            <a:t>views.py</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
         </a:p>
@@ -288,23 +674,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>686</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>19702</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110523</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C35307A-CC97-4F89-BE28-2B892B9ADDC5}"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B1472B-241A-B637-F13E-B16AE57A6745}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -312,8 +698,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1924050" y="2085975"/>
-          <a:ext cx="2638425" cy="1000125"/>
+          <a:off x="7295715" y="960136"/>
+          <a:ext cx="2607575" cy="797652"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -345,12 +731,1397 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>urls</a:t>
+            <a:t>urls.py</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>23098</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>42114</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>94147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B678552-36AC-F2D6-AB9C-79F33DB89C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7318127" y="4473613"/>
+          <a:ext cx="2607575" cy="797652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>models.py</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="フローチャート: 磁気ディスク 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268650DD-9E67-0419-7C08-FE2C621B4D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2420471" y="6533029"/>
+          <a:ext cx="2644588" cy="2218765"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>230281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>35265</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF38F82E-7D0E-4DDC-A6FD-E3D8447E79CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3310778" y="3524810"/>
+          <a:ext cx="2607575" cy="583576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>***.py</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>23098</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="コネクタ: カギ線 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A35288-6F39-4011-BFE3-E02AC6077380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="4"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5065059" y="4872439"/>
+          <a:ext cx="2253068" cy="2769973"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26624"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>150269</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>212914</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="コネクタ: カギ線 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1337A126-3B3C-486C-A858-06B7B0846F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8040890" y="3805065"/>
+          <a:ext cx="1224697" cy="62645"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>150267</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>18374</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC92874-0049-4981-941F-3E7745908A18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8128579" y="2113597"/>
+          <a:ext cx="847610" cy="139061"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606070B9-E7B2-4DA3-8C04-3E277B89BBE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11060206" y="2543735"/>
+          <a:ext cx="3078255" cy="728382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>テンプレート</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>(HTML)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1121</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="コネクタ: カギ線 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4C802B-2BD6-483D-9ABB-4A5DDA6D25CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="41" idx="3"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14138461" y="2907926"/>
+          <a:ext cx="1650627" cy="152401"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>219635</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148366FB-86B0-49DD-8A55-2CAFE79F8683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15789088" y="1568824"/>
+          <a:ext cx="903194" cy="2983006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ブラウザ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>44822</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>147918</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8283EF7-36ED-5326-DAEC-7F34EFFDA783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7104528" y="5916706"/>
+          <a:ext cx="7418295" cy="5056094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Accounts(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>アプリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>10771</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>211116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>29787</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA250AC-85B0-F80C-D2F0-63C39EA0069C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305800" y="7976792"/>
+          <a:ext cx="2607575" cy="617106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>views.py</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>223682</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>211583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>7375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>67941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E2C344-4E23-9B21-F985-B3F90DADFC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7283388" y="6329995"/>
+          <a:ext cx="2607575" cy="797652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>urls.py</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>10771</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>195207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>29787</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>51565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3AC1E78-685B-CA3D-E949-00D519F75855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305800" y="9843472"/>
+          <a:ext cx="2607575" cy="797652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>models.py</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>41547</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>210046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>223682</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="コネクタ: カギ線 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6FB0DE-940E-40AC-9CE1-FCE969969EB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924635" y="2327958"/>
+          <a:ext cx="1358753" cy="4400863"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>10771</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123386</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="コネクタ: カギ線 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D71324-C8AC-4BDF-A350-7A8D5D082B2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="4"/>
+          <a:endCxn id="57" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5065059" y="7642412"/>
+          <a:ext cx="2240741" cy="2599886"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 27496"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>131591</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>144291</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>201557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="コネクタ: カギ線 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE3657D-952E-43DA-AD2A-13A2A6E66540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="0"/>
+          <a:endCxn id="55" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7984801" y="9218685"/>
+          <a:ext cx="1249574" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>115530</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>67940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>137942</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>211115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="コネクタ: カギ線 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA6E39B-B35D-453C-A2BB-33972900FDA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="55" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8173810" y="7541013"/>
+          <a:ext cx="849145" cy="22412"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>29787</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>49021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>117661</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="コネクタ: カギ線 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5B2738-8FD7-46C1-8C7F-E24F89507CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9913375" y="8285345"/>
+          <a:ext cx="922714" cy="68640"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>30256</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237CA983-93F2-4D58-B5B3-1956486CF085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10836089" y="7989794"/>
+          <a:ext cx="3078255" cy="728382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>テンプレート</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>(HTML)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>30256</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>117661</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="コネクタ: カギ線 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB28D5D-FC3B-454C-9C26-DAE36ED26886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="74" idx="3"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13914344" y="3060327"/>
+          <a:ext cx="1874744" cy="5293658"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 57173"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>48302</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>191490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958EE004-3DF0-658B-FBFA-FF9A9DCD5F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="238125"/>
+          <a:ext cx="4848902" cy="7097115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>591494</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>153020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58905292-C09E-EDCD-42A0-6C071A29A203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="7620000"/>
+          <a:ext cx="6763694" cy="4439270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -621,9 +2392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData/>
@@ -631,4 +2400,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5839DB2B-C6AA-416F-A9CB-BCDBBB7628DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>